--- a/vpc-list-forsmu.xlsx
+++ b/vpc-list-forsmu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeychua/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laddi\Desktop\Vertex Internship\news-articles-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52652FD0-CC62-E143-B21C-BF5BDA7D8838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE71051-D518-4076-B120-D89F1E849758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="500" windowWidth="23860" windowHeight="20240" xr2:uid="{BB86801D-6BFD-B74F-8BC9-8AE59DB613CE}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{BB86801D-6BFD-B74F-8BC9-8AE59DB613CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,9 +206,6 @@
     <t>https://www.mybites.io/</t>
   </si>
   <si>
-    <t>Blings IO</t>
-  </si>
-  <si>
     <t>Blings is a personalized, interactive built-to-scale video experience.</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>https://www.infralight.co/</t>
   </si>
   <si>
-    <t>Growth Space</t>
-  </si>
-  <si>
     <t>GrowthSpace brings the power of data to personalized learning and development.</t>
   </si>
   <si>
@@ -282,10 +276,6 @@
   </si>
   <si>
     <t>https://sayata.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coinomo (Seadom Pte. Ltd.)
-</t>
   </si>
   <si>
     <t>The Company is founded in 2021 and aims to be a crypto wealth management platform for the masses in Indonesia, Thailand, the Philippines and Vietnam.</t>
@@ -358,9 +348,6 @@
   </si>
   <si>
     <t>https://pacenow.co/</t>
-  </si>
-  <si>
-    <t>PN IVF Access</t>
   </si>
   <si>
     <t xml:space="preserve">IVF Access is a healthcare company focused on providing In Vitro Fertilisation (IVF) in India. </t>
@@ -599,6 +586,19 @@
   </si>
   <si>
     <t>As a Singapore based fintech platform centered on real estate tokenization, Sharable Asset allows every investor to easily discover, analyse, invest and own real estate assets online, on a real-time basis. It is regulated by the Monetary Authority of Singapore as a capital markets services licensee(CMS100942). Shareable Asset aims to make global real estate ownership and investment accessible to all. Make passive income with Shareable Asset</t>
+  </si>
+  <si>
+    <t>Blings.IO</t>
+  </si>
+  <si>
+    <t>GrowthSpace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coinomo
+</t>
+  </si>
+  <si>
+    <t>IVF Access</t>
   </si>
 </sst>
 </file>
@@ -658,11 +658,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -983,20 +982,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C7E8B5-A03D-214F-8334-5FCD1E60FA7A}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A26" activeCellId="1" sqref="A29 A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="81.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="53" style="2" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="35.875" customWidth="1"/>
+    <col min="2" max="2" width="81.5" customWidth="1"/>
+    <col min="3" max="3" width="53" customWidth="1"/>
+    <col min="4" max="4" width="46.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1010,664 +1008,664 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="B19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="B21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="D22" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="D23" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="D27" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="B31" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C31" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="2" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="B33" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C33" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="2" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="B36" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C36" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>142</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
         <v>156</v>
       </c>
-      <c r="D41" s="2" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="B43" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="2" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="B44" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C44" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D45" s="2" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B48" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
